--- a/src/test/resources/testData/Master_Sheet.xlsx
+++ b/src/test/resources/testData/Master_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EclipseProgramWorkspace\Java2022_09\SeleniumTrainingB13_MVN\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91AE551-5A84-4ABF-B017-BC88B8F30809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A718623-C1A2-489A-9562-32E16C07B45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
   <si>
     <t xml:space="preserve">Sr. No </t>
   </si>
@@ -74,9 +74,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Test_Case_04</t>
-  </si>
-  <si>
     <t>Test_Case_05</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>verifyHomePageOfBymatAutomation</t>
+  </si>
+  <si>
+    <t>RegisterUserForTheSeleniumTraining2</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -580,13 +580,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -594,13 +594,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -608,13 +608,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -670,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -727,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4668CBAB-C452-40CE-A283-6DB616929218}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +746,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -760,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -777,16 +777,16 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -811,10 +811,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -828,16 +828,16 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -848,19 +848,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10">
         <v>7875753612</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
@@ -871,19 +871,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6">
         <v>8698456123</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -908,10 +908,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -925,16 +925,16 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -959,10 +959,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -976,21 +976,72 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1002,9 +1053,10 @@
     <hyperlink ref="C9" r:id="rId4" xr:uid="{829762F5-1D95-451E-9C3F-BB285E253A0E}"/>
     <hyperlink ref="C17" r:id="rId5" xr:uid="{B75FE3A7-3B18-4E42-BAF1-22C99B50ED24}"/>
     <hyperlink ref="C13" r:id="rId6" xr:uid="{E999A387-E741-4654-BDC2-C4FA376C9AAF}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{4EEFEAAC-D4B9-4191-8B9C-3AF28F5D67D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
